--- a/.informations/ScénarioUtilisation/Antoine Mailhot/Livrable2-Scénario.xlsx
+++ b/.informations/ScénarioUtilisation/Antoine Mailhot/Livrable2-Scénario.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A05AA8-D1D6-4095-99B2-ACE98D5E46E4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scénario 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>Titre</t>
   </si>
@@ -50,36 +49,15 @@
     <t>L'utilisateur non connecté peut effectuer la configuration à une base de données et indiquer s'il y a un déployement dans la base de données.</t>
   </si>
   <si>
-    <t>Affichage de l'écran de connexion</t>
-  </si>
-  <si>
     <t>Lancement du programme hymperia.exe</t>
   </si>
   <si>
     <t>Clique sur "Réglages"</t>
   </si>
   <si>
-    <t>Affichage de l'écran de réglages sélectionnée sur "Base de données"</t>
-  </si>
-  <si>
-    <t>Propose plusieurs contrôle dont : "Hôte", "Base de données", "Utilisateur","Mot de passe","Déployer la base de données"</t>
-  </si>
-  <si>
-    <t>Remplir le champ : "Hôte"</t>
-  </si>
-  <si>
     <t>420.cstj.qc.ca (hôte correct)</t>
   </si>
   <si>
-    <t>Remplir le champ : "Base de données"</t>
-  </si>
-  <si>
-    <t>Remplir le champ : "Utilisateur"</t>
-  </si>
-  <si>
-    <t>Remplir le champ : "Mot de passe"</t>
-  </si>
-  <si>
     <t>hymperia_ (base de données correct)</t>
   </si>
   <si>
@@ -89,66 +67,33 @@
     <t>infoH25978 (Mot de passe correct)</t>
   </si>
   <si>
-    <t>Si on veut déployer une nouvelle base de données sur une base de données vide. Alors on coche : "Déployer la base de données"</t>
-  </si>
-  <si>
     <t>Case coché</t>
   </si>
   <si>
     <t>Clique sur "Connexion"</t>
   </si>
   <si>
-    <t>Si les paramètres sont bon, il relance l'application. Affichel'écran de connexion. Sinon on indique un message d'erreur.</t>
-  </si>
-  <si>
     <t>Inscription à Hymperia</t>
   </si>
   <si>
     <t>Scénario 1; 0</t>
   </si>
   <si>
-    <t>Vérifie au dessus de réglage c'est écrit : "Connecté", sinon faire scénario 1; 0-7</t>
-  </si>
-  <si>
-    <t>Propose plusieurs contrôle dont : "Utilisateur","Mot de passe","Connexion","Inscription"</t>
-  </si>
-  <si>
     <t>Clique sur le bouton : "Inscription"</t>
   </si>
   <si>
     <t>Affiche l'écran d'inscription</t>
   </si>
   <si>
-    <t>Propose plusieurs contrôle dont : "Utilisateur", "Mot de passe","Vérification du mot de passe"</t>
-  </si>
-  <si>
     <t>Hymperia (Mot de passe correct)</t>
   </si>
   <si>
-    <t>Remplir le champ : "Vérification du mot de passe"</t>
-  </si>
-  <si>
-    <t>Hymperia (Vérification du mot de passe)</t>
-  </si>
-  <si>
-    <t>Affiche l'écran de projets</t>
-  </si>
-  <si>
     <t>Propose plusieurs contrôle dont : "Réglages", "Ajouter un projet","Supprimer projet(s)"</t>
   </si>
   <si>
     <t>Connexion à Hymperia</t>
   </si>
   <si>
-    <t>Scénario 2; 0-1</t>
-  </si>
-  <si>
-    <t>Scénario 2; 3-4</t>
-  </si>
-  <si>
-    <t>Scénario 2; 6</t>
-  </si>
-  <si>
     <t>Clique sur le bouton : "Connexion"</t>
   </si>
   <si>
@@ -179,9 +124,6 @@
     <t>Scénario 2; 4</t>
   </si>
   <si>
-    <t>Scénario 2; 5</t>
-  </si>
-  <si>
     <t>Scénario 4; 1</t>
   </si>
   <si>
@@ -191,15 +133,9 @@
     <t>L'utilisateur accède à ses réglages pour changer son mot de passe.</t>
   </si>
   <si>
-    <t>L'utilisateur ayant réglé la connexion automatique sur activé, celle-ci connecte automatique l'utilisateur.</t>
-  </si>
-  <si>
     <t>Clique sur : "Changement"</t>
   </si>
   <si>
-    <t>Affiche une fenêtre modal disant : "Votre mot de passe à été changé avec sussès."</t>
-  </si>
-  <si>
     <t>En tant qu'utilisateur anonyme, je veux m'inscrire pour accéder aux fonctionnalités d'Hymperia.</t>
   </si>
   <si>
@@ -207,12 +143,78 @@
   </si>
   <si>
     <t>Scénario 3; 0-2</t>
+  </si>
+  <si>
+    <t>Affiche une fenêtre modal disant : "Votre mot de passe à été changé avec succès."</t>
+  </si>
+  <si>
+    <t>L'utilisateur ayant réglé la connexion automatique sur activé, celle-ci connecte automatiquement l'utilisateur.</t>
+  </si>
+  <si>
+    <t>Affichage de l'écran de réglages de base de données.</t>
+  </si>
+  <si>
+    <t>Affichage de l'écran de connexion.</t>
+  </si>
+  <si>
+    <t>Si les paramètres sont bon, l'application se connecte, déploie la base de donnée si voulu, puis retourne à l'écran de connexion. Affichel'écran de connexion. Sinon on indique un message d'erreur.</t>
+  </si>
+  <si>
+    <t>Propose plusieurs contrôle dont : "Utilisateur","Mot de passe","Connexion","Inscription".</t>
+  </si>
+  <si>
+    <t>Propose plusieurs contrôle dont : "Hôte", "Base de données", "Utilisateur","Mot de passe","Déployer la base de données".</t>
+  </si>
+  <si>
+    <t>Propose plusieurs contrôles dont : "Utilisateur", "Mot de passe","Vérification du mot de passe"</t>
+  </si>
+  <si>
+    <t>Hymperia (Vérification du mot de passe correct)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crée l'utilisateur en base de données. </t>
+  </si>
+  <si>
+    <t>Affiche l'écran des projets.</t>
+  </si>
+  <si>
+    <t>L'écran est vide</t>
+  </si>
+  <si>
+    <t>Scénario 2; 2-3</t>
+  </si>
+  <si>
+    <t>Scénario 2; 6-7</t>
+  </si>
+  <si>
+    <t>Scénario 2; 3</t>
+  </si>
+  <si>
+    <t>Connecte l'utilisateur</t>
+  </si>
+  <si>
+    <t>Pour déployer une nouvelle base de données, coche : "Déployer la base de données"</t>
+  </si>
+  <si>
+    <t>Remplis le champ : "Hôte"</t>
+  </si>
+  <si>
+    <t>Remplis le champ : "Base de données"</t>
+  </si>
+  <si>
+    <t>Remplis le champ : "Utilisateur"</t>
+  </si>
+  <si>
+    <t>Remplis le champ : "Mot de passe"</t>
+  </si>
+  <si>
+    <t>Remplis le champ : "Vérification du mot de passe"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,11 +541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,14 +599,14 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
@@ -612,14 +614,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -627,10 +629,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -640,10 +642,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -653,10 +655,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -666,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -679,24 +681,24 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -709,11 +711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD92B4B-22B7-45EC-BF3C-8146254C0F6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -738,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -767,106 +769,106 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -877,11 +879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2664A35-E7A3-41D1-B85F-1FD50DAC40DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -906,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -935,14 +937,14 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -950,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -963,14 +965,14 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1002,11 +1004,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54661E1B-C65E-491A-BC4E-CC44DFDC7370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1031,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1060,14 +1062,14 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
@@ -1075,14 +1077,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1090,10 +1092,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1114,11 +1116,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7D57CF-92BC-4632-8435-812990FA3D2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1143,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1172,14 +1174,14 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1187,14 +1189,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1202,10 +1204,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1215,10 +1217,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1228,10 +1230,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
